--- a/source/excel/nwsl-2016-crs-orl-050116.xlsx
+++ b/source/excel/nwsl-2016-crs-orl-050116.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredo/Desktop/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alfredo/Documents/GitHub/wosostats/source/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55EF9A67-65EC-044F-AED4-C7F3AA71122F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="1520" windowWidth="25520" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="80" yWindow="1520" windowWidth="22100" windowHeight="10720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="match" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -737,9 +746,6 @@
     <t>xG</t>
   </si>
   <si>
-    <t>dkt</t>
-  </si>
-  <si>
     <t>90+1</t>
   </si>
   <si>
@@ -802,11 +808,14 @@
   <si>
     <t>HICKMANN ALVES (21)</t>
   </si>
+  <si>
+    <t>gkt</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1142,278 +1151,7 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9900FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9900FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9900FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9900FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9900FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9900FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9900FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9900FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9900FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9900FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9900FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9900FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9900FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF9900FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF99FFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1696,6 +1434,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2022,11 +1763,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U1495"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1458" workbookViewId="0">
-      <selection activeCell="O1463" sqref="O1463"/>
+    <sheetView tabSelected="1" topLeftCell="A1364" workbookViewId="0">
+      <selection activeCell="I1380" sqref="I1380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3903,7 +3644,7 @@
         <v>23</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>20</v>
@@ -3967,7 +3708,7 @@
         <v>23</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H31" s="9" t="s">
         <v>20</v>
@@ -4031,7 +3772,7 @@
         <v>27</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H32" s="9" t="s">
         <v>20</v>
@@ -4095,7 +3836,7 @@
         <v>30</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H33" s="9" t="s">
         <v>20</v>
@@ -4671,7 +4412,7 @@
         <v>23</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H42" s="9" t="s">
         <v>20</v>
@@ -4863,7 +4604,7 @@
         <v>48</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H45" s="9" t="s">
         <v>20</v>
@@ -4927,7 +4668,7 @@
         <v>23</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H46" s="9" t="s">
         <v>20</v>
@@ -4991,7 +4732,7 @@
         <v>27</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H47" s="9" t="s">
         <v>20</v>
@@ -5055,7 +4796,7 @@
         <v>35</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>20</v>
@@ -5119,7 +4860,7 @@
         <v>27</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H49" s="9" t="s">
         <v>20</v>
@@ -5183,7 +4924,7 @@
         <v>35</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H50" s="9" t="s">
         <v>20</v>
@@ -5204,7 +4945,7 @@
         <v>56</v>
       </c>
       <c r="N50" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O50" s="9" t="s">
         <v>20</v>
@@ -5330,7 +5071,7 @@
         <v>57</v>
       </c>
       <c r="N52" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O52" s="9" t="s">
         <v>20</v>
@@ -5373,7 +5114,7 @@
         <v>48</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H53" s="9" t="s">
         <v>20</v>
@@ -5437,7 +5178,7 @@
         <v>35</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H54" s="9" t="s">
         <v>20</v>
@@ -6835,7 +6576,7 @@
       <c r="C76" s="40"/>
       <c r="D76" s="40"/>
       <c r="E76" s="40" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F76" s="41" t="s">
         <v>91</v>
@@ -6945,7 +6686,7 @@
         <v>48</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H78" s="9" t="s">
         <v>20</v>
@@ -7009,7 +6750,7 @@
         <v>35</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H79" s="9" t="s">
         <v>20</v>
@@ -7073,7 +6814,7 @@
         <v>23</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H80" s="9" t="s">
         <v>20</v>
@@ -7137,7 +6878,7 @@
         <v>27</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H81" s="9" t="s">
         <v>20</v>
@@ -7201,7 +6942,7 @@
         <v>27</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H82" s="9" t="s">
         <v>20</v>
@@ -9495,10 +9236,10 @@
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
       <c r="E118" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G118" s="9" t="s">
         <v>104</v>
@@ -9544,7 +9285,7 @@
         <v>93</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I119" s="8" t="s">
         <v>62</v>
@@ -11753,7 +11494,7 @@
         <v>27</v>
       </c>
       <c r="G154" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H154" s="9" t="s">
         <v>20</v>
@@ -11816,7 +11557,7 @@
         <v>102</v>
       </c>
       <c r="H155" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I155" s="8"/>
       <c r="J155" s="7"/>
@@ -11853,7 +11594,7 @@
         <v>35</v>
       </c>
       <c r="G156" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H156" s="9" t="s">
         <v>20</v>
@@ -12256,7 +11997,7 @@
         <v>41</v>
       </c>
       <c r="N162" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O162" s="9" t="s">
         <v>20</v>
@@ -12299,7 +12040,7 @@
         <v>27</v>
       </c>
       <c r="G163" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H163" s="9" t="s">
         <v>20</v>
@@ -12448,7 +12189,7 @@
         <v>41</v>
       </c>
       <c r="N165" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O165" s="9" t="s">
         <v>20</v>
@@ -12491,7 +12232,7 @@
         <v>23</v>
       </c>
       <c r="G166" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H166" s="9" t="s">
         <v>20</v>
@@ -12875,7 +12616,7 @@
         <v>27</v>
       </c>
       <c r="G172" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H172" s="9" t="s">
         <v>20</v>
@@ -12939,7 +12680,7 @@
         <v>76</v>
       </c>
       <c r="G173" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H173" s="9" t="s">
         <v>20</v>
@@ -13961,7 +13702,7 @@
         <v>27</v>
       </c>
       <c r="G189" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H189" s="9" t="s">
         <v>20</v>
@@ -14025,7 +13766,7 @@
         <v>48</v>
       </c>
       <c r="G190" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H190" s="9" t="s">
         <v>20</v>
@@ -14089,7 +13830,7 @@
         <v>35</v>
       </c>
       <c r="G191" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H191" s="9" t="s">
         <v>20</v>
@@ -14153,7 +13894,7 @@
         <v>23</v>
       </c>
       <c r="G192" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H192" s="9" t="s">
         <v>20</v>
@@ -14601,7 +14342,7 @@
         <v>30</v>
       </c>
       <c r="G199" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H199" s="9" t="s">
         <v>20</v>
@@ -14857,7 +14598,7 @@
         <v>48</v>
       </c>
       <c r="G203" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H203" s="9" t="s">
         <v>20</v>
@@ -14921,7 +14662,7 @@
         <v>27</v>
       </c>
       <c r="G204" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H204" s="9" t="s">
         <v>20</v>
@@ -14985,7 +14726,7 @@
         <v>23</v>
       </c>
       <c r="G205" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H205" s="9" t="s">
         <v>20</v>
@@ -15113,7 +14854,7 @@
         <v>27</v>
       </c>
       <c r="G207" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H207" s="9" t="s">
         <v>20</v>
@@ -15241,7 +14982,7 @@
         <v>27</v>
       </c>
       <c r="G209" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H209" s="9" t="s">
         <v>20</v>
@@ -15625,7 +15366,7 @@
         <v>81</v>
       </c>
       <c r="G215" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H215" s="9" t="s">
         <v>20</v>
@@ -15689,7 +15430,7 @@
         <v>27</v>
       </c>
       <c r="G216" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H216" s="9" t="s">
         <v>20</v>
@@ -15902,7 +15643,7 @@
         <v>57</v>
       </c>
       <c r="N219" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O219" s="9" t="s">
         <v>20</v>
@@ -15945,7 +15686,7 @@
         <v>48</v>
       </c>
       <c r="G220" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H220" s="9" t="s">
         <v>20</v>
@@ -16009,7 +15750,7 @@
         <v>27</v>
       </c>
       <c r="G221" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H221" s="9" t="s">
         <v>20</v>
@@ -16137,7 +15878,7 @@
         <v>35</v>
       </c>
       <c r="G223" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H223" s="9" t="s">
         <v>20</v>
@@ -16201,7 +15942,7 @@
         <v>27</v>
       </c>
       <c r="G224" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H224" s="9" t="s">
         <v>20</v>
@@ -16649,7 +16390,7 @@
         <v>35</v>
       </c>
       <c r="G231" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H231" s="9" t="s">
         <v>20</v>
@@ -16959,7 +16700,7 @@
       <c r="C236" s="40"/>
       <c r="D236" s="40"/>
       <c r="E236" s="40" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F236" s="41" t="s">
         <v>35</v>
@@ -17131,7 +16872,7 @@
         <v>48</v>
       </c>
       <c r="G239" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H239" s="9" t="s">
         <v>20</v>
@@ -17195,7 +16936,7 @@
         <v>23</v>
       </c>
       <c r="G240" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H240" s="9" t="s">
         <v>20</v>
@@ -17472,7 +17213,7 @@
         <v>41</v>
       </c>
       <c r="N244" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O244" s="9" t="s">
         <v>20</v>
@@ -17579,7 +17320,7 @@
         <v>35</v>
       </c>
       <c r="G246" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H246" s="9" t="s">
         <v>20</v>
@@ -17633,7 +17374,7 @@
       <c r="C247" s="40"/>
       <c r="D247" s="40"/>
       <c r="E247" s="40" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F247" s="41" t="s">
         <v>91</v>
@@ -17871,7 +17612,7 @@
         <v>27</v>
       </c>
       <c r="G251" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H251" s="9" t="s">
         <v>20</v>
@@ -17935,7 +17676,7 @@
         <v>23</v>
       </c>
       <c r="G252" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H252" s="9" t="s">
         <v>20</v>
@@ -17999,7 +17740,7 @@
         <v>27</v>
       </c>
       <c r="G253" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H253" s="9" t="s">
         <v>20</v>
@@ -18063,7 +17804,7 @@
         <v>35</v>
       </c>
       <c r="G254" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H254" s="9" t="s">
         <v>20</v>
@@ -18127,7 +17868,7 @@
         <v>35</v>
       </c>
       <c r="G255" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H255" s="9" t="s">
         <v>20</v>
@@ -18340,7 +18081,7 @@
         <v>56</v>
       </c>
       <c r="N258" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O258" s="9" t="s">
         <v>20</v>
@@ -18383,7 +18124,7 @@
         <v>27</v>
       </c>
       <c r="G259" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H259" s="9" t="s">
         <v>20</v>
@@ -18511,7 +18252,7 @@
         <v>35</v>
       </c>
       <c r="G261" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H261" s="9" t="s">
         <v>20</v>
@@ -18575,7 +18316,7 @@
         <v>35</v>
       </c>
       <c r="G262" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H262" s="9" t="s">
         <v>20</v>
@@ -18639,7 +18380,7 @@
         <v>35</v>
       </c>
       <c r="G263" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H263" s="9" t="s">
         <v>20</v>
@@ -18703,7 +18444,7 @@
         <v>27</v>
       </c>
       <c r="G264" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H264" s="9" t="s">
         <v>20</v>
@@ -18767,7 +18508,7 @@
         <v>23</v>
       </c>
       <c r="G265" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H265" s="9" t="s">
         <v>20</v>
@@ -18831,7 +18572,7 @@
         <v>23</v>
       </c>
       <c r="G266" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H266" s="9" t="s">
         <v>20</v>
@@ -19151,7 +18892,7 @@
         <v>72</v>
       </c>
       <c r="G271" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H271" s="9" t="s">
         <v>20</v>
@@ -19215,7 +18956,7 @@
         <v>27</v>
       </c>
       <c r="G272" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H272" s="9" t="s">
         <v>20</v>
@@ -19471,7 +19212,7 @@
         <v>35</v>
       </c>
       <c r="G276" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H276" s="9" t="s">
         <v>20</v>
@@ -19663,7 +19404,7 @@
         <v>30</v>
       </c>
       <c r="G279" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H279" s="9" t="s">
         <v>20</v>
@@ -19727,7 +19468,7 @@
         <v>48</v>
       </c>
       <c r="G280" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H280" s="9" t="s">
         <v>20</v>
@@ -19791,7 +19532,7 @@
         <v>23</v>
       </c>
       <c r="G281" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H281" s="9" t="s">
         <v>20</v>
@@ -19855,7 +19596,7 @@
         <v>27</v>
       </c>
       <c r="G282" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H282" s="9" t="s">
         <v>20</v>
@@ -20004,7 +19745,7 @@
         <v>41</v>
       </c>
       <c r="N284" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="O284" s="9" t="s">
         <v>20</v>
@@ -20047,7 +19788,7 @@
         <v>35</v>
       </c>
       <c r="G285" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H285" s="9" t="s">
         <v>20</v>
@@ -20324,7 +20065,7 @@
         <v>57</v>
       </c>
       <c r="N289" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O289" s="9" t="s">
         <v>20</v>
@@ -20429,7 +20170,7 @@
         <v>76</v>
       </c>
       <c r="G291" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H291" s="9" t="s">
         <v>20</v>
@@ -20493,7 +20234,7 @@
         <v>23</v>
       </c>
       <c r="G292" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H292" s="9" t="s">
         <v>20</v>
@@ -20557,7 +20298,7 @@
         <v>35</v>
       </c>
       <c r="G293" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H293" s="9" t="s">
         <v>20</v>
@@ -20621,7 +20362,7 @@
         <v>68</v>
       </c>
       <c r="G294" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H294" s="9" t="s">
         <v>20</v>
@@ -20685,7 +20426,7 @@
         <v>85</v>
       </c>
       <c r="G295" s="8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H295" s="9" t="s">
         <v>20</v>
@@ -20813,7 +20554,7 @@
         <v>27</v>
       </c>
       <c r="G297" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H297" s="9" t="s">
         <v>20</v>
@@ -20877,7 +20618,7 @@
         <v>48</v>
       </c>
       <c r="G298" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H298" s="9" t="s">
         <v>20</v>
@@ -20941,7 +20682,7 @@
         <v>27</v>
       </c>
       <c r="G299" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H299" s="9" t="s">
         <v>20</v>
@@ -22605,7 +22346,7 @@
         <v>35</v>
       </c>
       <c r="G325" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H325" s="9" t="s">
         <v>20</v>
@@ -22669,7 +22410,7 @@
         <v>35</v>
       </c>
       <c r="G326" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H326" s="9" t="s">
         <v>20</v>
@@ -22787,7 +22528,7 @@
       <c r="C328" s="40"/>
       <c r="D328" s="40"/>
       <c r="E328" s="40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F328" s="41" t="s">
         <v>27</v>
@@ -23407,7 +23148,7 @@
         <v>27</v>
       </c>
       <c r="G338" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H338" s="9" t="s">
         <v>20</v>
@@ -23919,7 +23660,7 @@
         <v>48</v>
       </c>
       <c r="G346" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H346" s="9" t="s">
         <v>20</v>
@@ -23983,7 +23724,7 @@
         <v>27</v>
       </c>
       <c r="G347" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H347" s="9" t="s">
         <v>20</v>
@@ -24111,7 +23852,7 @@
         <v>30</v>
       </c>
       <c r="G349" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H349" s="9" t="s">
         <v>20</v>
@@ -24175,7 +23916,7 @@
         <v>48</v>
       </c>
       <c r="G350" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H350" s="9" t="s">
         <v>20</v>
@@ -24239,7 +23980,7 @@
         <v>68</v>
       </c>
       <c r="G351" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H351" s="9" t="s">
         <v>20</v>
@@ -24303,7 +24044,7 @@
         <v>60</v>
       </c>
       <c r="G352" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H352" s="9" t="s">
         <v>20</v>
@@ -24367,7 +24108,7 @@
         <v>35</v>
       </c>
       <c r="G353" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H353" s="9" t="s">
         <v>20</v>
@@ -24431,7 +24172,7 @@
         <v>35</v>
       </c>
       <c r="G354" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H354" s="9" t="s">
         <v>20</v>
@@ -24495,7 +24236,7 @@
         <v>35</v>
       </c>
       <c r="G355" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H355" s="9" t="s">
         <v>20</v>
@@ -24623,7 +24364,7 @@
         <v>48</v>
       </c>
       <c r="G357" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H357" s="9" t="s">
         <v>20</v>
@@ -24687,7 +24428,7 @@
         <v>27</v>
       </c>
       <c r="G358" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H358" s="9" t="s">
         <v>20</v>
@@ -24751,7 +24492,7 @@
         <v>35</v>
       </c>
       <c r="G359" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H359" s="9" t="s">
         <v>20</v>
@@ -25455,7 +25196,7 @@
         <v>48</v>
       </c>
       <c r="G370" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H370" s="9" t="s">
         <v>20</v>
@@ -25519,7 +25260,7 @@
         <v>27</v>
       </c>
       <c r="G371" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H371" s="9" t="s">
         <v>20</v>
@@ -25583,7 +25324,7 @@
         <v>27</v>
       </c>
       <c r="G372" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H372" s="9" t="s">
         <v>20</v>
@@ -25839,7 +25580,7 @@
         <v>48</v>
       </c>
       <c r="G376" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H376" s="9" t="s">
         <v>20</v>
@@ -25903,7 +25644,7 @@
         <v>35</v>
       </c>
       <c r="G377" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H377" s="9" t="s">
         <v>20</v>
@@ -26226,7 +25967,7 @@
         <v>102</v>
       </c>
       <c r="H382" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I382" s="41" t="s">
         <v>20</v>
@@ -26277,13 +26018,13 @@
       <c r="C383" s="40"/>
       <c r="D383" s="40"/>
       <c r="E383" s="40" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F383" s="41" t="s">
         <v>35</v>
       </c>
       <c r="G383" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H383" s="42"/>
       <c r="I383" s="41" t="s">
@@ -26292,7 +26033,7 @@
       <c r="J383" s="40"/>
       <c r="K383" s="40"/>
       <c r="L383" s="40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="M383" s="41" t="s">
         <v>56</v>
@@ -26329,7 +26070,7 @@
         <v>35</v>
       </c>
       <c r="G384" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H384" s="9" t="s">
         <v>20</v>
@@ -27100,7 +26841,7 @@
         <v>94</v>
       </c>
       <c r="H396" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I396" s="8" t="s">
         <v>64</v>
@@ -27673,7 +27414,7 @@
         <v>27</v>
       </c>
       <c r="G405" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H405" s="9" t="s">
         <v>20</v>
@@ -28057,7 +27798,7 @@
         <v>27</v>
       </c>
       <c r="G411" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H411" s="9" t="s">
         <v>20</v>
@@ -28313,7 +28054,7 @@
         <v>68</v>
       </c>
       <c r="G415" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H415" s="9" t="s">
         <v>20</v>
@@ -28370,13 +28111,13 @@
         <v>52</v>
       </c>
       <c r="F416" s="8" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G416" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H416" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I416" s="8"/>
       <c r="J416" s="7"/>
@@ -28413,7 +28154,7 @@
         <v>27</v>
       </c>
       <c r="G417" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H417" s="9" t="s">
         <v>20</v>
@@ -28434,7 +28175,7 @@
         <v>72</v>
       </c>
       <c r="N417" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O417" s="9" t="s">
         <v>20</v>
@@ -28477,7 +28218,7 @@
         <v>74</v>
       </c>
       <c r="G418" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H418" s="9" t="s">
         <v>20</v>
@@ -28733,7 +28474,7 @@
         <v>57</v>
       </c>
       <c r="G422" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H422" s="9" t="s">
         <v>20</v>
@@ -28861,7 +28602,7 @@
         <v>23</v>
       </c>
       <c r="G424" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H424" s="9" t="s">
         <v>20</v>
@@ -29309,7 +29050,7 @@
         <v>23</v>
       </c>
       <c r="G431" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H431" s="9" t="s">
         <v>20</v>
@@ -29565,7 +29306,7 @@
         <v>27</v>
       </c>
       <c r="G435" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H435" s="9" t="s">
         <v>20</v>
@@ -29693,7 +29434,7 @@
         <v>35</v>
       </c>
       <c r="G437" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H437" s="9" t="s">
         <v>20</v>
@@ -29757,7 +29498,7 @@
         <v>48</v>
       </c>
       <c r="G438" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H438" s="9" t="s">
         <v>20</v>
@@ -29821,7 +29562,7 @@
         <v>27</v>
       </c>
       <c r="G439" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H439" s="9" t="s">
         <v>20</v>
@@ -29885,7 +29626,7 @@
         <v>27</v>
       </c>
       <c r="G440" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H440" s="9" t="s">
         <v>20</v>
@@ -30259,13 +30000,13 @@
       <c r="C446" s="40"/>
       <c r="D446" s="40"/>
       <c r="E446" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F446" s="41" t="s">
         <v>91</v>
       </c>
       <c r="G446" s="42" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H446" s="42" t="s">
         <v>104</v>
@@ -30369,7 +30110,7 @@
         <v>48</v>
       </c>
       <c r="G448" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H448" s="9" t="s">
         <v>20</v>
@@ -30433,7 +30174,7 @@
         <v>23</v>
       </c>
       <c r="G449" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H449" s="9" t="s">
         <v>20</v>
@@ -30497,7 +30238,7 @@
         <v>27</v>
       </c>
       <c r="G450" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H450" s="9" t="s">
         <v>20</v>
@@ -30561,7 +30302,7 @@
         <v>35</v>
       </c>
       <c r="G451" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H451" s="9" t="s">
         <v>20</v>
@@ -30582,7 +30323,7 @@
         <v>56</v>
       </c>
       <c r="N451" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O451" s="9" t="s">
         <v>20</v>
@@ -30625,7 +30366,7 @@
         <v>35</v>
       </c>
       <c r="G452" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H452" s="9" t="s">
         <v>20</v>
@@ -30679,13 +30420,13 @@
       <c r="C453" s="40"/>
       <c r="D453" s="40"/>
       <c r="E453" s="40" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F453" s="41" t="s">
         <v>48</v>
       </c>
       <c r="G453" s="42" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H453" s="9"/>
       <c r="I453" s="8"/>
@@ -30723,7 +30464,7 @@
         <v>70</v>
       </c>
       <c r="G454" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H454" s="9" t="s">
         <v>20</v>
@@ -30851,7 +30592,7 @@
         <v>35</v>
       </c>
       <c r="G456" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H456" s="9" t="s">
         <v>20</v>
@@ -30915,7 +30656,7 @@
         <v>35</v>
       </c>
       <c r="G457" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H457" s="9" t="s">
         <v>20</v>
@@ -30979,7 +30720,7 @@
         <v>70</v>
       </c>
       <c r="G458" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H458" s="9" t="s">
         <v>20</v>
@@ -32189,7 +31930,7 @@
         <v>35</v>
       </c>
       <c r="G477" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H477" s="9" t="s">
         <v>20</v>
@@ -32317,7 +32058,7 @@
         <v>35</v>
       </c>
       <c r="G479" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H479" s="9" t="s">
         <v>20</v>
@@ -32381,7 +32122,7 @@
         <v>27</v>
       </c>
       <c r="G480" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H480" s="9" t="s">
         <v>20</v>
@@ -32445,7 +32186,7 @@
         <v>60</v>
       </c>
       <c r="G481" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H481" s="9" t="s">
         <v>20</v>
@@ -32573,7 +32314,7 @@
         <v>35</v>
       </c>
       <c r="G483" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H483" s="9" t="s">
         <v>20</v>
@@ -32637,7 +32378,7 @@
         <v>35</v>
       </c>
       <c r="G484" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H484" s="9" t="s">
         <v>20</v>
@@ -32701,7 +32442,7 @@
         <v>27</v>
       </c>
       <c r="G485" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H485" s="9" t="s">
         <v>20</v>
@@ -32722,7 +32463,7 @@
         <v>57</v>
       </c>
       <c r="N485" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O485" s="9" t="s">
         <v>20</v>
@@ -32829,7 +32570,7 @@
         <v>48</v>
       </c>
       <c r="G487" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H487" s="9" t="s">
         <v>20</v>
@@ -32893,7 +32634,7 @@
         <v>68</v>
       </c>
       <c r="G488" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H488" s="9" t="s">
         <v>20</v>
@@ -32957,7 +32698,7 @@
         <v>27</v>
       </c>
       <c r="G489" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H489" s="9" t="s">
         <v>20</v>
@@ -33021,7 +32762,7 @@
         <v>35</v>
       </c>
       <c r="G490" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H490" s="9" t="s">
         <v>20</v>
@@ -33042,7 +32783,7 @@
         <v>56</v>
       </c>
       <c r="N490" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O490" s="9" t="s">
         <v>20</v>
@@ -33149,7 +32890,7 @@
         <v>35</v>
       </c>
       <c r="G492" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H492" s="9" t="s">
         <v>20</v>
@@ -33213,7 +32954,7 @@
         <v>48</v>
       </c>
       <c r="G493" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H493" s="9" t="s">
         <v>20</v>
@@ -33277,7 +33018,7 @@
         <v>27</v>
       </c>
       <c r="G494" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H494" s="9" t="s">
         <v>20</v>
@@ -33298,7 +33039,7 @@
         <v>57</v>
       </c>
       <c r="N494" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O494" s="9" t="s">
         <v>20</v>
@@ -33405,7 +33146,7 @@
         <v>35</v>
       </c>
       <c r="G496" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H496" s="9" t="s">
         <v>20</v>
@@ -33533,7 +33274,7 @@
         <v>57</v>
       </c>
       <c r="G498" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H498" s="9" t="s">
         <v>20</v>
@@ -33725,7 +33466,7 @@
         <v>23</v>
       </c>
       <c r="G501" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H501" s="9" t="s">
         <v>20</v>
@@ -33789,7 +33530,7 @@
         <v>23</v>
       </c>
       <c r="G502" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H502" s="9" t="s">
         <v>20</v>
@@ -34359,7 +34100,7 @@
         <v>20</v>
       </c>
       <c r="E511" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F511" s="8" t="s">
         <v>23</v>
@@ -34557,7 +34298,7 @@
         <v>70</v>
       </c>
       <c r="G514" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H514" s="9" t="s">
         <v>20</v>
@@ -34621,7 +34362,7 @@
         <v>76</v>
       </c>
       <c r="G515" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H515" s="9" t="s">
         <v>20</v>
@@ -34813,7 +34554,7 @@
         <v>30</v>
       </c>
       <c r="G518" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H518" s="9" t="s">
         <v>20</v>
@@ -35837,7 +35578,7 @@
         <v>27</v>
       </c>
       <c r="G534" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H534" s="9" t="s">
         <v>20</v>
@@ -36727,13 +36468,13 @@
         <v>20</v>
       </c>
       <c r="E548" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F548" s="8" t="s">
         <v>72</v>
       </c>
       <c r="G548" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H548" s="9" t="s">
         <v>20</v>
@@ -36791,13 +36532,13 @@
         <v>20</v>
       </c>
       <c r="E549" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F549" s="8" t="s">
         <v>70</v>
       </c>
       <c r="G549" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H549" s="9" t="s">
         <v>20</v>
@@ -37053,7 +36794,7 @@
         <v>27</v>
       </c>
       <c r="G553" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H553" s="9" t="s">
         <v>20</v>
@@ -37202,7 +36943,7 @@
         <v>41</v>
       </c>
       <c r="N555" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O555" s="9" t="s">
         <v>20</v>
@@ -38013,7 +37754,7 @@
         <v>35</v>
       </c>
       <c r="G568" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H568" s="9" t="s">
         <v>20</v>
@@ -38909,7 +38650,7 @@
         <v>57</v>
       </c>
       <c r="G582" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H582" s="9" t="s">
         <v>20</v>
@@ -38973,7 +38714,7 @@
         <v>48</v>
       </c>
       <c r="G583" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H583" s="9" t="s">
         <v>20</v>
@@ -39037,7 +38778,7 @@
         <v>23</v>
       </c>
       <c r="G584" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H584" s="9" t="s">
         <v>20</v>
@@ -39101,7 +38842,7 @@
         <v>27</v>
       </c>
       <c r="G585" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H585" s="9" t="s">
         <v>20</v>
@@ -39229,10 +38970,10 @@
         <v>35</v>
       </c>
       <c r="G587" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H587" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I587" s="8" t="s">
         <v>54</v>
@@ -39506,7 +39247,7 @@
         <v>41</v>
       </c>
       <c r="N591" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="O591" s="9" t="s">
         <v>20</v>
@@ -39549,7 +39290,7 @@
         <v>23</v>
       </c>
       <c r="G592" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H592" s="9" t="s">
         <v>20</v>
@@ -40251,7 +39992,7 @@
         <v>35</v>
       </c>
       <c r="G603" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H603" s="9" t="s">
         <v>20</v>
@@ -40379,7 +40120,7 @@
         <v>48</v>
       </c>
       <c r="G605" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H605" s="9" t="s">
         <v>20</v>
@@ -40443,7 +40184,7 @@
         <v>35</v>
       </c>
       <c r="G606" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H606" s="9" t="s">
         <v>20</v>
@@ -41271,7 +41012,7 @@
         <v>81</v>
       </c>
       <c r="G619" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H619" s="9" t="s">
         <v>20</v>
@@ -41399,7 +41140,7 @@
         <v>27</v>
       </c>
       <c r="G621" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H621" s="9" t="s">
         <v>20</v>
@@ -41457,7 +41198,7 @@
         <v>20</v>
       </c>
       <c r="E622" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F622" s="8" t="s">
         <v>27</v>
@@ -41845,7 +41586,7 @@
         <v>30</v>
       </c>
       <c r="G628" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H628" s="9" t="s">
         <v>20</v>
@@ -42101,7 +41842,7 @@
         <v>27</v>
       </c>
       <c r="G632" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H632" s="9" t="s">
         <v>20</v>
@@ -42481,7 +42222,7 @@
         <v>91</v>
       </c>
       <c r="G638" s="42" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H638" s="42" t="s">
         <v>86</v>
@@ -43417,7 +43158,7 @@
         <v>27</v>
       </c>
       <c r="G653" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H653" s="9" t="s">
         <v>20</v>
@@ -43481,7 +43222,7 @@
         <v>35</v>
       </c>
       <c r="G654" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H654" s="9" t="s">
         <v>20</v>
@@ -43545,7 +43286,7 @@
         <v>35</v>
       </c>
       <c r="G655" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H655" s="9" t="s">
         <v>20</v>
@@ -44631,7 +44372,7 @@
         <v>23</v>
       </c>
       <c r="G672" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H672" s="9" t="s">
         <v>20</v>
@@ -44695,7 +44436,7 @@
         <v>35</v>
       </c>
       <c r="G673" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H673" s="9" t="s">
         <v>20</v>
@@ -45399,7 +45140,7 @@
         <v>68</v>
       </c>
       <c r="G684" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H684" s="9" t="s">
         <v>20</v>
@@ -45463,7 +45204,7 @@
         <v>35</v>
       </c>
       <c r="G685" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H685" s="9" t="s">
         <v>20</v>
@@ -45527,7 +45268,7 @@
         <v>27</v>
       </c>
       <c r="G686" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H686" s="9" t="s">
         <v>20</v>
@@ -45847,7 +45588,7 @@
         <v>23</v>
       </c>
       <c r="G691" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H691" s="9" t="s">
         <v>20</v>
@@ -46357,7 +46098,7 @@
         <v>91</v>
       </c>
       <c r="G699" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H699" s="8" t="s">
         <v>86</v>
@@ -46613,7 +46354,7 @@
         <v>35</v>
       </c>
       <c r="G703" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H703" s="9" t="s">
         <v>20</v>
@@ -46677,7 +46418,7 @@
         <v>35</v>
       </c>
       <c r="G704" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H704" s="9" t="s">
         <v>20</v>
@@ -46741,7 +46482,7 @@
         <v>60</v>
       </c>
       <c r="G705" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H705" s="9" t="s">
         <v>20</v>
@@ -46805,7 +46546,7 @@
         <v>35</v>
       </c>
       <c r="G706" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H706" s="9" t="s">
         <v>20</v>
@@ -46869,7 +46610,7 @@
         <v>23</v>
       </c>
       <c r="G707" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H707" s="9" t="s">
         <v>20</v>
@@ -46933,7 +46674,7 @@
         <v>35</v>
       </c>
       <c r="G708" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H708" s="9" t="s">
         <v>20</v>
@@ -47179,7 +46920,7 @@
       <c r="C712" s="40"/>
       <c r="D712" s="40"/>
       <c r="E712" s="40" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F712" s="41" t="s">
         <v>23</v>
@@ -47287,7 +47028,7 @@
         <v>23</v>
       </c>
       <c r="G714" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H714" s="9" t="s">
         <v>20</v>
@@ -47351,7 +47092,7 @@
         <v>27</v>
       </c>
       <c r="G715" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H715" s="9" t="s">
         <v>20</v>
@@ -47415,7 +47156,7 @@
         <v>70</v>
       </c>
       <c r="G716" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H716" s="9" t="s">
         <v>20</v>
@@ -47597,7 +47338,7 @@
       <c r="C719" s="40"/>
       <c r="D719" s="40"/>
       <c r="E719" s="40" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F719" s="41" t="s">
         <v>91</v>
@@ -47771,7 +47512,7 @@
         <v>35</v>
       </c>
       <c r="G722" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H722" s="9" t="s">
         <v>20</v>
@@ -48027,7 +47768,7 @@
         <v>23</v>
       </c>
       <c r="G726" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H726" s="9" t="s">
         <v>20</v>
@@ -48091,7 +47832,7 @@
         <v>70</v>
       </c>
       <c r="G727" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H727" s="9" t="s">
         <v>20</v>
@@ -48155,7 +47896,7 @@
         <v>48</v>
       </c>
       <c r="G728" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H728" s="9" t="s">
         <v>20</v>
@@ -48219,7 +47960,7 @@
         <v>57</v>
       </c>
       <c r="G729" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H729" s="9" t="s">
         <v>20</v>
@@ -48539,7 +48280,7 @@
         <v>27</v>
       </c>
       <c r="G734" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H734" s="9" t="s">
         <v>20</v>
@@ -48603,7 +48344,7 @@
         <v>27</v>
       </c>
       <c r="G735" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H735" s="9" t="s">
         <v>20</v>
@@ -48667,7 +48408,7 @@
         <v>68</v>
       </c>
       <c r="G736" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H736" s="9" t="s">
         <v>20</v>
@@ -48731,7 +48472,7 @@
         <v>35</v>
       </c>
       <c r="G737" s="9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H737" s="9" t="s">
         <v>20</v>
@@ -48977,7 +48718,7 @@
       <c r="C741" s="40"/>
       <c r="D741" s="40"/>
       <c r="E741" s="40" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F741" s="41" t="s">
         <v>91</v>
@@ -50045,7 +49786,7 @@
         <v>48</v>
       </c>
       <c r="G758" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H758" s="9" t="s">
         <v>20</v>
@@ -50109,7 +49850,7 @@
         <v>23</v>
       </c>
       <c r="G759" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H759" s="9" t="s">
         <v>20</v>
@@ -50173,7 +49914,7 @@
         <v>27</v>
       </c>
       <c r="G760" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H760" s="9" t="s">
         <v>20</v>
@@ -50237,7 +49978,7 @@
         <v>70</v>
       </c>
       <c r="G761" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H761" s="9" t="s">
         <v>20</v>
@@ -50365,7 +50106,7 @@
         <v>27</v>
       </c>
       <c r="G763" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H763" s="9" t="s">
         <v>20</v>
@@ -74051,7 +73792,7 @@
         <v>171</v>
       </c>
       <c r="I1150" s="9" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J1150" s="7" t="s">
         <v>20</v>
@@ -78917,7 +78658,7 @@
         <v>140</v>
       </c>
       <c r="I1229" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J1229" s="7" t="s">
         <v>20</v>
@@ -88143,7 +87884,7 @@
         <v>206</v>
       </c>
       <c r="I1380" s="9" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
       <c r="J1380" s="7" t="s">
         <v>20</v>
@@ -89135,7 +88876,7 @@
         <v>185</v>
       </c>
       <c r="I1396" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J1396" s="7" t="s">
         <v>20</v>
@@ -93792,7 +93533,7 @@
         <v>1312</v>
       </c>
       <c r="B1472" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C1472" s="7" t="s">
         <v>20</v>
@@ -93854,7 +93595,7 @@
         <v>1313</v>
       </c>
       <c r="B1473" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C1473" s="7" t="s">
         <v>20</v>
@@ -93916,7 +93657,7 @@
         <v>1314</v>
       </c>
       <c r="B1474" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C1474" s="7" t="s">
         <v>20</v>
@@ -93978,7 +93719,7 @@
         <v>1315</v>
       </c>
       <c r="B1475" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C1475" s="7" t="s">
         <v>20</v>
@@ -94068,7 +93809,7 @@
         <v>1316</v>
       </c>
       <c r="B1477" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C1477" s="7" t="s">
         <v>20</v>
@@ -94130,7 +93871,7 @@
         <v>1317</v>
       </c>
       <c r="B1478" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C1478" s="7" t="s">
         <v>20</v>
@@ -94192,7 +93933,7 @@
         <v>1318</v>
       </c>
       <c r="B1479" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C1479" s="7" t="s">
         <v>20</v>
@@ -94254,7 +93995,7 @@
         <v>1319</v>
       </c>
       <c r="B1480" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C1480" s="7" t="s">
         <v>20</v>
@@ -94316,7 +94057,7 @@
         <v>1320</v>
       </c>
       <c r="B1481" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C1481" s="7" t="s">
         <v>20</v>
@@ -94378,7 +94119,7 @@
         <v>1321</v>
       </c>
       <c r="B1482" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C1482" s="7" t="s">
         <v>20</v>
@@ -94440,7 +94181,7 @@
         <v>1322</v>
       </c>
       <c r="B1483" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C1483" s="7" t="s">
         <v>20</v>
@@ -94502,7 +94243,7 @@
         <v>1323</v>
       </c>
       <c r="B1484" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C1484" s="7" t="s">
         <v>20</v>
@@ -94564,7 +94305,7 @@
         <v>1324</v>
       </c>
       <c r="B1485" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C1485" s="7" t="s">
         <v>20</v>
@@ -94626,7 +94367,7 @@
         <v>1325</v>
       </c>
       <c r="B1486" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C1486" s="7" t="s">
         <v>20</v>
@@ -94688,7 +94429,7 @@
         <v>1326</v>
       </c>
       <c r="B1487" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C1487" s="7" t="s">
         <v>20</v>
@@ -94750,7 +94491,7 @@
         <v>1327</v>
       </c>
       <c r="B1488" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C1488" s="7" t="s">
         <v>20</v>
@@ -94812,7 +94553,7 @@
         <v>1328</v>
       </c>
       <c r="B1489" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C1489" s="7" t="s">
         <v>20</v>
@@ -94874,7 +94615,7 @@
         <v>1329</v>
       </c>
       <c r="B1490" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C1490" s="7" t="s">
         <v>20</v>
@@ -94936,7 +94677,7 @@
         <v>1330</v>
       </c>
       <c r="B1491" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C1491" s="7" t="s">
         <v>20</v>
@@ -95000,7 +94741,7 @@
         <v>1331</v>
       </c>
       <c r="B1492" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C1492" s="7" t="s">
         <v>20</v>
@@ -95062,7 +94803,7 @@
         <v>1332</v>
       </c>
       <c r="B1493" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C1493" s="7" t="s">
         <v>20</v>
@@ -95152,19 +94893,19 @@
         <v>1333</v>
       </c>
       <c r="B1495" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C1495" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1495" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1495" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1495" s="9" t="s">
         <v>239</v>
-      </c>
-      <c r="C1495" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1495" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1495" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1495" s="9" t="s">
-        <v>240</v>
       </c>
       <c r="G1495" s="9" t="s">
         <v>20</v>
@@ -95210,129 +94951,129 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1:E1048576 L1:L1048576">
-    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="comeau">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="comeau">
       <formula>NOT(ISERROR(SEARCH("comeau",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="2" operator="containsText" text="da costa">
+    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="da costa">
       <formula>NOT(ISERROR(SEARCH("da costa",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="51" priority="3" operator="containsText" text="hoy">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="hoy">
       <formula>NOT(ISERROR(SEARCH("hoy",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="50" priority="4" operator="containsText" text="huerta">
+    <cfRule type="containsText" dxfId="23" priority="4" operator="containsText" text="huerta">
       <formula>NOT(ISERROR(SEARCH("huerta",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="press">
+    <cfRule type="containsText" dxfId="22" priority="5" operator="containsText" text="press">
       <formula>NOT(ISERROR(SEARCH("press",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="colaprico">
+    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="colaprico">
       <formula>NOT(ISERROR(SEARCH("colaprico",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="47" priority="7" operator="containsText" text="dibernardo">
+    <cfRule type="containsText" dxfId="20" priority="7" operator="containsText" text="dibernardo">
       <formula>NOT(ISERROR(SEARCH("dibernardo",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="8" operator="containsText" text="mautz">
+    <cfRule type="containsText" dxfId="19" priority="8" operator="containsText" text="mautz">
       <formula>NOT(ISERROR(SEARCH("mautz",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="45" priority="9" operator="containsText" text="gilliland">
+    <cfRule type="containsText" dxfId="18" priority="9" operator="containsText" text="gilliland">
       <formula>NOT(ISERROR(SEARCH("gilliland",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="44" priority="10" operator="containsText" text="naughton">
+    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="naughton">
       <formula>NOT(ISERROR(SEARCH("naughton",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="43" priority="11" operator="containsText" text="johnson">
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="johnson">
       <formula>NOT(ISERROR(SEARCH("johnson",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="12" operator="containsText" text="short">
+    <cfRule type="containsText" dxfId="15" priority="12" operator="containsText" text="short">
       <formula>NOT(ISERROR(SEARCH("short",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="13" operator="containsText" text="naeher">
+    <cfRule type="containsText" dxfId="14" priority="13" operator="containsText" text="naeher">
       <formula>NOT(ISERROR(SEARCH("naeher",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="40" priority="14" operator="containsText" text="witteman">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="witteman">
       <formula>NOT(ISERROR(SEARCH("witteman",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="39" priority="15" operator="containsText" text="edwards">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="edwards">
       <formula>NOT(ISERROR(SEARCH("edwards",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="16" operator="containsText" text="spencer">
+    <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="spencer">
       <formula>NOT(ISERROR(SEARCH("spencer",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="17" operator="containsText" text="belanger">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="belanger">
       <formula>NOT(ISERROR(SEARCH("belanger",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="18" operator="containsText" text="hagen">
+    <cfRule type="containsText" dxfId="9" priority="18" operator="containsText" text="hagen">
       <formula>NOT(ISERROR(SEARCH("hagen",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="19" operator="containsText" text="morgan">
+    <cfRule type="containsText" dxfId="8" priority="19" operator="containsText" text="morgan">
       <formula>NOT(ISERROR(SEARCH("morgan",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="20" operator="containsText" text="sanderson">
+    <cfRule type="containsText" dxfId="7" priority="20" operator="containsText" text="sanderson">
       <formula>NOT(ISERROR(SEARCH("sanderson",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="21" operator="containsText" text="kyle">
+    <cfRule type="containsText" dxfId="6" priority="21" operator="containsText" text="kyle">
       <formula>NOT(ISERROR(SEARCH("kyle",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="22" operator="containsText" text="alleway">
+    <cfRule type="containsText" dxfId="5" priority="22" operator="containsText" text="alleway">
       <formula>NOT(ISERROR(SEARCH("alleway",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="23" operator="containsText" text="catley">
+    <cfRule type="containsText" dxfId="4" priority="23" operator="containsText" text="catley">
       <formula>NOT(ISERROR(SEARCH("catley",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="24" operator="containsText" text="edmonds">
+    <cfRule type="containsText" dxfId="3" priority="24" operator="containsText" text="edmonds">
       <formula>NOT(ISERROR(SEARCH("edmonds",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="25" operator="containsText" text="evans">
+    <cfRule type="containsText" dxfId="2" priority="25" operator="containsText" text="evans">
       <formula>NOT(ISERROR(SEARCH("evans",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="26" operator="containsText" text="hickmann alves">
+    <cfRule type="containsText" dxfId="1" priority="26" operator="containsText" text="hickmann alves">
       <formula>NOT(ISERROR(SEARCH("hickmann alves",E1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="27" operator="containsText" text="Harris">
+    <cfRule type="containsText" dxfId="0" priority="27" operator="containsText" text="Harris">
       <formula>NOT(ISERROR(SEARCH("Harris",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="I34" r:id="rId1"/>
-    <hyperlink ref="I36" r:id="rId2"/>
-    <hyperlink ref="I48" r:id="rId3"/>
-    <hyperlink ref="I70" r:id="rId4"/>
-    <hyperlink ref="I94" r:id="rId5"/>
-    <hyperlink ref="I121" r:id="rId6"/>
-    <hyperlink ref="I142" r:id="rId7"/>
-    <hyperlink ref="I145" r:id="rId8"/>
-    <hyperlink ref="I189" r:id="rId9"/>
-    <hyperlink ref="I194" r:id="rId10"/>
-    <hyperlink ref="I226" r:id="rId11"/>
-    <hyperlink ref="F248" r:id="rId12"/>
-    <hyperlink ref="I251" r:id="rId13"/>
-    <hyperlink ref="I262" r:id="rId14"/>
-    <hyperlink ref="I292" r:id="rId15"/>
-    <hyperlink ref="F295" r:id="rId16"/>
-    <hyperlink ref="I348" r:id="rId17"/>
-    <hyperlink ref="I353" r:id="rId18"/>
-    <hyperlink ref="I368" r:id="rId19"/>
-    <hyperlink ref="I401" r:id="rId20"/>
-    <hyperlink ref="I423" r:id="rId21"/>
-    <hyperlink ref="I437" r:id="rId22"/>
-    <hyperlink ref="I456" r:id="rId23"/>
-    <hyperlink ref="I480" r:id="rId24"/>
-    <hyperlink ref="I483" r:id="rId25"/>
-    <hyperlink ref="I496" r:id="rId26"/>
-    <hyperlink ref="I522" r:id="rId27"/>
-    <hyperlink ref="I545" r:id="rId28"/>
-    <hyperlink ref="I547" r:id="rId29"/>
-    <hyperlink ref="I557" r:id="rId30"/>
-    <hyperlink ref="F571" r:id="rId31"/>
-    <hyperlink ref="I574" r:id="rId32"/>
-    <hyperlink ref="I577" r:id="rId33"/>
-    <hyperlink ref="I588" r:id="rId34"/>
-    <hyperlink ref="I653" r:id="rId35"/>
-    <hyperlink ref="I703" r:id="rId36"/>
-    <hyperlink ref="I706" r:id="rId37"/>
-    <hyperlink ref="I714" r:id="rId38"/>
-    <hyperlink ref="I726" r:id="rId39"/>
-    <hyperlink ref="F738" r:id="rId40"/>
+    <hyperlink ref="I34" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I36" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="I48" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I70" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="I94" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I121" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="I142" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I145" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I189" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I194" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I226" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="F248" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="I251" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I262" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="I292" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="F295" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="I348" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I353" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="I368" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I401" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="I423" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I437" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="I456" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I480" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="I483" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I496" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="I522" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I545" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="I547" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I557" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="F571" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I574" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I577" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I588" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="I653" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I703" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="I706" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I714" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="I726" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="F738" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
